--- a/工作计划/工作计划 -2018--08-27.xlsx
+++ b/工作计划/工作计划 -2018--08-27.xlsx
@@ -83,63 +83,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 月结客户、普通客户的消费记录，欠款标注；增加月结客户的欠款明细；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四阶段的新增需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 不间断供气的计价方式调整；（昆明给出具体需求文档，签字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 财务报表对接；（昆明给出具体需求文档，签字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 态势显示中钢瓶数量区分空重瓶；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 各个分公司的微信支付号统一管理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 钢瓶档案的生产日期不正确，BUG修正；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 .增加空瓶回收流程，客户不再使用，退瓶问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 气票订单显示支付详情；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4. 每个订单统计配送时间；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 月结客户、普通客户的消费记录，欠款标注；增加月结客户的欠款明细；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四阶段的新增需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 不间断供气的计价方式调整；（昆明给出具体需求文档，签字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 财务报表对接；（昆明给出具体需求文档，签字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 态势显示中钢瓶数量区分空重瓶；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. APP被系统回收问题；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.08.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 各个分公司的微信支付号统一管理；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.08.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.09.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.09.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 钢瓶档案的生产日期不正确，BUG修正；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 .增加空瓶回收流程，客户不再使用，退瓶问题；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 气票订单显示支付详情；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,18 +253,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,7 +570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D21"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -615,178 +615,178 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C16" s="12"/>
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C15" s="12"/>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C16" s="15"/>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C17" s="15"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
     <row r="19" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C20" s="15"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C21" s="15"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="23" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C24" s="15"/>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C25" s="15"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="27" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="13"/>
     </row>
     <row r="32" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="3"/>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="13"/>
     </row>
     <row r="35" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C35" s="11"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="4"/>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="13"/>
     </row>
@@ -795,22 +795,29 @@
       <c r="E41" s="9"/>
     </row>
     <row r="44" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C44" s="11"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C45" s="12"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E19:E20"/>
@@ -820,13 +827,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
